--- a/Sendeablauf.xlsx
+++ b/Sendeablauf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1085" documentId="11_E22E292DDC8DBA9EA073EE662C3ECE11D21903C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58244FDC-3590-4F6E-ADEE-D1303AA46ED5}"/>
+  <xr:revisionPtr revIDLastSave="1086" documentId="11_E22E292DDC8DBA9EA073EE662C3ECE11D21903C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{263BD8A9-F9EF-472D-A5D6-7D7A2ED50112}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
   <si>
     <t>Position</t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>Restliche Zeit:</t>
-  </si>
-  <si>
-    <t>afjhsb</t>
   </si>
   <si>
     <t>Länge</t>
@@ -1260,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC0628F-2C61-46B7-9E6A-ECDB70C78D9B}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G15" activePane="topRight" state="frozen"/>
@@ -2414,11 +2411,6 @@
       <c r="C30" s="21">
         <f>C29-C28</f>
         <v>8.8541666666666682E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2470,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -2488,13 +2480,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -2509,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
@@ -2523,13 +2515,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -2557,13 +2549,13 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>23</v>
@@ -2574,7 +2566,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -2589,13 +2581,13 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>37</v>
@@ -2610,7 +2602,7 @@
         <v>39</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
@@ -2623,10 +2615,10 @@
         <v>26</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" t="s">
         <v>148</v>
-      </c>
-      <c r="R4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2636,13 +2628,13 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>43</v>
@@ -2657,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -2672,11 +2664,11 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>26</v>
@@ -2691,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -2706,11 +2698,11 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -2725,7 +2717,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2740,13 +2732,13 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>58</v>
@@ -2755,13 +2747,13 @@
         <v>57</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -2780,11 +2772,11 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>43</v>
@@ -2799,7 +2791,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2814,13 +2806,13 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>23</v>
@@ -2832,10 +2824,10 @@
         <v>23</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2852,13 +2844,13 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>73</v>
@@ -2873,7 +2865,7 @@
         <v>74</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" t="s">
@@ -2894,11 +2886,11 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>80</v>
@@ -2907,13 +2899,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>81</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2926,10 +2918,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
@@ -2944,7 +2936,7 @@
         <v>86</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="29.25">
@@ -2952,10 +2944,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -2964,13 +2956,13 @@
         <v>89</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30.75">
@@ -2980,13 +2972,13 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>43</v>
@@ -3001,7 +2993,7 @@
         <v>93</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9" t="s">
@@ -3020,13 +3012,13 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>23</v>
@@ -3038,10 +3030,10 @@
         <v>23</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -3058,13 +3050,13 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>101</v>
@@ -3079,7 +3071,7 @@
         <v>102</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
@@ -3100,11 +3092,11 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>100</v>
@@ -3113,20 +3105,20 @@
         <v>105</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="K18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30.75">
@@ -3136,26 +3128,26 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3170,28 +3162,28 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
@@ -3210,11 +3202,11 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>26</v>
@@ -3229,14 +3221,14 @@
         <v>128</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3250,7 +3242,7 @@
         <v>130</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>23</v>
@@ -3263,7 +3255,7 @@
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>

--- a/Sendeablauf.xlsx
+++ b/Sendeablauf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1086" documentId="11_E22E292DDC8DBA9EA073EE662C3ECE11D21903C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{263BD8A9-F9EF-472D-A5D6-7D7A2ED50112}"/>
+  <xr:revisionPtr revIDLastSave="1087" documentId="11_E22E292DDC8DBA9EA073EE662C3ECE11D21903C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E02EB97-825A-4C07-8A89-B20EA9FE7696}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="171">
   <si>
     <t>Position</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Startzeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Länge </t>
+    <t>Länge</t>
   </si>
   <si>
     <t>Kürzel</t>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>Restliche Zeit:</t>
-  </si>
-  <si>
-    <t>Länge</t>
   </si>
   <si>
     <t>Art der Narration</t>
@@ -1260,8 +1257,8 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G15" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A36" sqref="A36"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2462,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -2480,13 +2477,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -2501,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
@@ -2515,13 +2512,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>23</v>
@@ -2549,13 +2546,13 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>23</v>
@@ -2566,7 +2563,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -2581,13 +2578,13 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>37</v>
@@ -2602,7 +2599,7 @@
         <v>39</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
@@ -2615,10 +2612,10 @@
         <v>26</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4" t="s">
         <v>147</v>
-      </c>
-      <c r="R4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2628,13 +2625,13 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>43</v>
@@ -2649,7 +2646,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -2664,11 +2661,11 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>26</v>
@@ -2683,7 +2680,7 @@
         <v>51</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -2698,11 +2695,11 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>43</v>
@@ -2717,7 +2714,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2732,13 +2729,13 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>58</v>
@@ -2747,13 +2744,13 @@
         <v>57</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -2772,11 +2769,11 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>43</v>
@@ -2791,7 +2788,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2806,13 +2803,13 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>23</v>
@@ -2824,10 +2821,10 @@
         <v>23</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2844,13 +2841,13 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>73</v>
@@ -2865,7 +2862,7 @@
         <v>74</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" t="s">
@@ -2886,11 +2883,11 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>80</v>
@@ -2899,13 +2896,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>81</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2918,10 +2915,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
@@ -2936,7 +2933,7 @@
         <v>86</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="29.25">
@@ -2944,10 +2941,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -2956,13 +2953,13 @@
         <v>89</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30.75">
@@ -2972,13 +2969,13 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>43</v>
@@ -2993,7 +2990,7 @@
         <v>93</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9" t="s">
@@ -3012,13 +3009,13 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>23</v>
@@ -3030,10 +3027,10 @@
         <v>23</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -3050,13 +3047,13 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>101</v>
@@ -3071,7 +3068,7 @@
         <v>102</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
@@ -3092,11 +3089,11 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>100</v>
@@ -3105,20 +3102,20 @@
         <v>105</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="K18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30.75">
@@ -3128,26 +3125,26 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3162,28 +3159,28 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
@@ -3202,11 +3199,11 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>26</v>
@@ -3221,14 +3218,14 @@
         <v>128</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3242,7 +3239,7 @@
         <v>130</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>23</v>
@@ -3255,7 +3252,7 @@
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
